--- a/orcamentos/Assoc. Beneficente Cultural e Esportiva de José Boiteux_asdasd.xlsx
+++ b/orcamentos/Assoc. Beneficente Cultural e Esportiva de José Boiteux_asdasd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D1B3B7-7DCF-41CD-B9CE-C1D452DD84F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE4BBA4-62D9-4DDB-8956-0131DD8C4B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="geral_não" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +145,51 @@
   </si>
   <si>
     <t>Valor Total</t>
+  </si>
+  <si>
+    <t>FG77GG</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>Pirulito GG, prod. em bolas de fibra de vidro em vários tamanhos</t>
+  </si>
+  <si>
+    <t>Pirulito de bolas, tridimensional, medindo aproximadamente 5,10m de altura x 1,50m de diâmetro, confeccionado com cinco bolas de fibra de vidro com acabamento liso e pintura em esmalte sintético e verniz automotivo brilhante, as bolas são fixadas em poste metálico de 2 polegadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totem composto por 6 bolas natalinas coloridas, revestidas com verniz brilhante, tridimensional, medindo entre: mínimo: 5,05m de altura x 1,45m de largura x 1,45m de profundidade / máximo: 5,15m de altura x 1,55m de largura x 1,55m de profundidade,  confeccionado em fibra de  vidro com acabamento liso e fixadas em poste de aço carbono, zincado e com proteção anticorrosiva resistente a exposição. </t>
+  </si>
+  <si>
+    <t>AR0212SM</t>
+  </si>
+  <si>
+    <t>6,55</t>
+  </si>
+  <si>
+    <t>7,55</t>
+  </si>
+  <si>
+    <t>Árvore de arabescos, produzida em estrutura met. e mangueira luminosa. Aplicação de mangueiras de LED com movimentos e Strobos</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, medindo 12m de altura x 6,55m de largura x 7,55m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, toda a estrutura metálica é zincada, com proteção anticorrosiva resistente a exposição às intempéries. Aplicação de mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro na tensão de 220v. Aplicação de 76 lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. Adição de 27 peças de mangueira luminosa de LED 24 Volts, medindo aproximadamente 2,00m de comprimento, 13mm de diâmetro, com 128 LEDs por peça, com aparelho sequencial que aciona aproximadamente 26 LEDs em cada canal, proporcionando um efeito semelhante à raios de luz e 33 peças de mangueira luminosa de LED 24 Volts, medindo aproximadamente 3,00m de comprimento, 13mm de diâmetro, com 192 LEDs por peça, com aparelho sequencial que aciona aproximadamente 39 LEDs em cada canal, proporcionando um efeito semelhante à raios de luz. Para ligação e perfeito funcionamento das mangueiras 24V descritas acima, é necessário incluir no fornecimento desta árvore 5 transformadores de 220V corrente alternada para 24V corrente alternada com a potência de 24W cada apropriados para uso externo (ou transformadores de diferentes potências que somem ao menos 120W de potência no total). A árvore é formada por 6 painéis triangulares de 3 andares cada, quando interligados formam uma base hexagonal autoportante que deve ser fixada ao solo através de parafusos ou estacadas adequados à superfície a ser instalada. Também deve acompanhar cabos de aço para estaiamento da estrutura. A árvore deve acompanhar manual de montagem.</t>
+  </si>
+  <si>
+    <t>Árvore luminosa sextavada com desenho em forma de arabescos, formada por 6 painéis triangulares que quando interligadas formam uma base hexagonal autoportante que deve ser fixada ao solo com materiais adequados, de acordo com asuperfície. Medindo entre: mínimo: 11,95m de altura x 6,50m de largura x 7,50m de comprimento / máximo:  12,05m de altura x 6,60m de largura x 7,60m de comprimento, produzida em estrutura de metalon 30mm x 30mm, parede de 2,00mm de espessura, barra chata de 1/2 x 3/16 polegada e 1/2 x 1/8 polegada, zincada, com proteção anticorrosiva resistente a exposição às intempéries. Contorno da árvore com mangueira luminosa incandescente cristal, em PVC flexível extrusado, de 13,00mm de diâmetro, com 36 micro lâmpadas por metro. Para o efeito de movimento será aplicado 153 metros de mangueira de LED na cor branca  13mm de diâmetro, com 64 LEDs por metro. Com aparelho sequencial que aciona aproximadamente 30% dos LEDs de cada mangueira, proporcionando um efeito de movimento. Para o funcionamento correto do movimento, é necessário que as mangueiras de LED snowfall sejam conectadas a 1 transformador de 220v corrente alternada para 24v corrente alternada, com capacidade proporcional a necessidade. Aplicação de strobos com lâmpadas de xênon de 6w de potência, com flashes de luz brilhante, aproximadamente 50 emissões por minuto, modelo redondo, medindo aproximadamente 8,5cm de base de fixação. Tensão de 220V. Potência da figura: 5704W</t>
+  </si>
+  <si>
+    <t>13/02/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizangela Wesolowski </t>
+  </si>
+  <si>
+    <t>C:\GitHub\myxlsm\orcamentosParaClientes\OrcamentoGerado_Assoc. Beneficente Cultural e Esportiva de José Boiteux.xlsx</t>
   </si>
 </sst>
 </file>
@@ -468,7 +513,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -699,6 +744,249 @@
         <v>700</v>
       </c>
       <c r="N6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
+        <v>580</v>
+      </c>
+      <c r="M7">
+        <v>700</v>
+      </c>
+      <c r="N7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>580</v>
+      </c>
+      <c r="M8">
+        <v>700</v>
+      </c>
+      <c r="N8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9">
+        <v>580</v>
+      </c>
+      <c r="M9">
+        <v>700</v>
+      </c>
+      <c r="N9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10">
+        <v>580</v>
+      </c>
+      <c r="M10">
+        <v>700</v>
+      </c>
+      <c r="N10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11">
+        <v>580</v>
+      </c>
+      <c r="M11">
+        <v>700</v>
+      </c>
+      <c r="N11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>500</v>
+      </c>
+      <c r="L12">
+        <v>580</v>
+      </c>
+      <c r="M12">
+        <v>700</v>
+      </c>
+      <c r="N12">
         <v>600</v>
       </c>
     </row>
@@ -773,7 +1061,8 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C993DD8-14C3-45CC-A2FC-7D7AD3CA0AFF}">
-  <dimension ref="A1:M2"/>
+  <sheetPr codeName="Planilha5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -824,18 +1113,81 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>555</v>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
       </c>
       <c r="M2">
         <f>C2*H2</f>
-        <v>0</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>5704</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3">
+        <f>C3*H3</f>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/orcamentos/Assoc. Beneficente Cultural e Esportiva de José Boiteux_asdasd.xlsx
+++ b/orcamentos/Assoc. Beneficente Cultural e Esportiva de José Boiteux_asdasd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE4BBA4-62D9-4DDB-8956-0131DD8C4B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A30A09F-2567-4E51-B72C-1127AB8D2A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
@@ -977,8 +977,8 @@
       <c r="J12" t="s">
         <v>18</v>
       </c>
-      <c r="K12">
-        <v>500</v>
+      <c r="K12" t="s">
+        <v>49</v>
       </c>
       <c r="L12">
         <v>580</v>
@@ -987,6 +987,47 @@
         <v>700</v>
       </c>
       <c r="N12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13">
+        <v>580</v>
+      </c>
+      <c r="M13">
+        <v>700</v>
+      </c>
+      <c r="N13">
         <v>600</v>
       </c>
     </row>
